--- a/data/working-experience.xlsx
+++ b/data/working-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481DFA6C-7BC1-4E02-BABF-D54D6E83DCF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF5412C-D687-4B74-8AFD-3A91322A7C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>what</t>
   </si>
@@ -37,58 +37,34 @@
     <t>why</t>
   </si>
   <si>
-    <t>ICE Soft</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Co-founded and managed a start-up company to develop Android-based navigation App and assistive technology for blind people.</t>
-  </si>
-  <si>
-    <t>Jul. 2010 - Jun. 2011</t>
-  </si>
-  <si>
-    <t>Co-Founder and Project Manager</t>
-  </si>
-  <si>
-    <t>Applied for and received a $30,000 fund from the city of Seoul.</t>
-  </si>
-  <si>
-    <t>Intern</t>
-  </si>
-  <si>
-    <t>National Human Rights Commission of Korea</t>
-  </si>
-  <si>
-    <t>May. 2010 - Nov. 2010</t>
-  </si>
-  <si>
-    <t>Investigated illegal cases of discrimination against the disabled with regard to voting.</t>
-  </si>
-  <si>
-    <t>Interviewed the disabled who had experienced discrimination against their voting rights.</t>
-  </si>
-  <si>
-    <t>Produced written report for National Human Rights Commission of Korea.</t>
-  </si>
-  <si>
-    <t>May. 2020 - Aug. 2020</t>
-  </si>
-  <si>
-    <t>Software Engineer Intern for Accessibility</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>Rstudio PBC</t>
-  </si>
-  <si>
-    <t>Working on accessibility improvement projects for Rstudio Server and Desktop IDE, and other Rstudio products (e.g., rmarkdown; RStudio Connect; shiny).</t>
-  </si>
-  <si>
-    <t>Developing JS and R code patches for keyboard and assistive technology UX improvements.</t>
+    <t>Data Consultant</t>
+  </si>
+  <si>
+    <t>Reddot</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Developing dashboards for decision-making</t>
+  </si>
+  <si>
+    <t>Consulting with clients on data-driven approaches for their solutions in industry</t>
+  </si>
+  <si>
+    <t>Conservation biologist</t>
+  </si>
+  <si>
+    <t>Mauritius Wildlife Foundation</t>
+  </si>
+  <si>
+    <t>Monitoring the behaviour of endemic birds at various locations for conservation purposes</t>
+  </si>
+  <si>
+    <t>Mar. 2020 - present</t>
+  </si>
+  <si>
+    <t>Feb. 2013 - Sep 2013</t>
   </si>
 </sst>
 </file>
@@ -406,13 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,75 +407,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
